--- a/[網站][M][N]ProjectName_網站檢測總表_YYYYMMDD.xlsx
+++ b/[網站][M][N]ProjectName_網站檢測總表_YYYYMMDD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\eclipse-workspace\WebinspectReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDEAE0F8-D89B-492D-A33B-98C53C23C2B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30E7D7D-14F6-47D0-8CFB-33F83554FD9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6195" yWindow="1200" windowWidth="20145" windowHeight="13755" tabRatio="506" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="24615" windowHeight="15270" tabRatio="506" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="網頁弱點掃描總表" sheetId="1" r:id="rId1"/>
@@ -1484,7 +1484,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1510,10 +1510,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="37" borderId="33" xfId="50" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="37" borderId="33" xfId="50">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="35" borderId="33" xfId="47" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="35" borderId="33" xfId="47">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="35" borderId="33" xfId="47" applyAlignment="1">
@@ -1522,40 +1522,32 @@
     <xf numFmtId="0" fontId="32" fillId="36" borderId="34" xfId="48" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="36" borderId="33" xfId="48" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="36" borderId="33" xfId="48" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="36" borderId="33" xfId="49" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="33" xfId="49">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="36" borderId="35" xfId="48" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="36" borderId="35" xfId="48" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="38" borderId="42" xfId="53" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="38" borderId="42" xfId="53">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="38" borderId="44" xfId="53" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="38" borderId="44" xfId="53" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="35" borderId="33" xfId="47" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="35" borderId="33" xfId="47" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="36" xfId="51" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="36" xfId="51" applyFont="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="37" xfId="52" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="37" xfId="52">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
@@ -1571,17 +1563,17 @@
     <xf numFmtId="0" fontId="30" fillId="34" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="37" borderId="33" xfId="50" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="37" borderId="33" xfId="50">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="35" borderId="33" xfId="47" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="35" borderId="33" xfId="47">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="38" borderId="43" xfId="53" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="38" borderId="43" xfId="53" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
@@ -1711,9 +1703,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1751,9 +1743,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1786,26 +1778,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1838,26 +1813,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2032,7 +1990,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="工作表2"/>
-  <dimension ref="A1:G15"/>
+  <dimension ref="B1:G14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B11" sqref="B11:G11"/>
@@ -2053,12 +2011,12 @@
     <col min="13" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33" customHeight="1">
-      <c r="B1" s="35" t="s">
+    <row r="1" spans="2:7" ht="33" customHeight="1">
+      <c r="B1" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
       <c r="F1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2066,8 +2024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.5" customHeight="1">
-      <c r="B2" s="22"/>
+    <row r="2" spans="2:7" ht="16.5" customHeight="1">
       <c r="F2" s="6" t="s">
         <v>2</v>
       </c>
@@ -2075,30 +2032,30 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="4" spans="1:7" ht="81.75" customHeight="1">
-      <c r="B4" s="37" t="s">
+    <row r="3" spans="2:7" ht="15.75" customHeight="1"/>
+    <row r="4" spans="2:7" ht="81.75" customHeight="1">
+      <c r="B4" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="39"/>
-    </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1"/>
-    <row r="6" spans="1:7" ht="16.5">
-      <c r="B6" s="42" t="s">
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="33"/>
+    </row>
+    <row r="5" spans="2:7" ht="18" customHeight="1"/>
+    <row r="6" spans="2:7" ht="16.5">
+      <c r="B6" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="E6" s="43" t="s">
+      <c r="C6" s="30"/>
+      <c r="E6" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-    </row>
-    <row r="7" spans="1:7" ht="29.1" customHeight="1">
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+    </row>
+    <row r="7" spans="2:7" ht="29.1" customHeight="1">
       <c r="B7" s="11" t="s">
         <v>3</v>
       </c>
@@ -2108,60 +2065,52 @@
       <c r="D7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-    </row>
-    <row r="8" spans="1:7" s="24" customFormat="1">
-      <c r="B8" s="25"/>
-      <c r="C8" s="28"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="12"/>
+      <c r="C8" s="22"/>
       <c r="D8" s="13"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+    </row>
+    <row r="9" spans="2:7">
       <c r="B9" s="12"/>
-      <c r="C9" s="28"/>
+      <c r="C9" s="22"/>
       <c r="D9" s="13"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" customHeight="1">
-      <c r="B10" s="29" t="s">
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+    </row>
+    <row r="10" spans="2:7" ht="16.5" customHeight="1">
+      <c r="B10" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="31"/>
-    </row>
-    <row r="11" spans="1:7" ht="125.25" customHeight="1">
-      <c r="B11" s="32" t="s">
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="25"/>
+    </row>
+    <row r="11" spans="2:7" ht="125.25" customHeight="1">
+      <c r="B11" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="34"/>
-    </row>
-    <row r="12" spans="1:7" s="26" customFormat="1"/>
-    <row r="13" spans="1:7" s="23" customFormat="1">
-      <c r="A13" s="27"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="26"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="28"/>
+    </row>
+    <row r="14" spans="2:7">
       <c r="B14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2204,103 +2153,103 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="24" customHeight="1">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
     </row>
     <row r="3" spans="1:7" ht="3.75" customHeight="1" thickBot="1"/>
     <row r="4" spans="1:7" ht="18.75" customHeight="1">
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="65"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="59"/>
     </row>
     <row r="5" spans="1:7" ht="20.25" customHeight="1">
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="67"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="61"/>
     </row>
     <row r="6" spans="1:7" ht="17.25" customHeight="1">
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="67"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="61"/>
     </row>
     <row r="7" spans="1:7" ht="21.75" customHeight="1">
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="67"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="61"/>
     </row>
     <row r="8" spans="1:7" ht="19.5" customHeight="1" thickBot="1">
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="71"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="65"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B9" s="68"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
     </row>
     <row r="10" spans="1:7" ht="22.5" customHeight="1">
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="54"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="48"/>
     </row>
     <row r="11" spans="1:7" ht="19.5" customHeight="1">
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="51" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="59" t="s">
+      <c r="E11" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="61" t="s">
+      <c r="F11" s="55" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18" customHeight="1">
-      <c r="B12" s="56"/>
-      <c r="C12" s="58"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="52"/>
       <c r="D12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="60"/>
-      <c r="F12" s="62"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="56"/>
     </row>
     <row r="13" spans="1:7" ht="45" customHeight="1">
       <c r="B13" s="14"/>
@@ -2317,10 +2266,10 @@
       <c r="F14" s="17"/>
     </row>
     <row r="16" spans="1:7" ht="87" customHeight="1">
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="45"/>
+      <c r="C16" s="39"/>
       <c r="D16" s="18" t="s">
         <v>20</v>
       </c>
@@ -2332,20 +2281,20 @@
       </c>
     </row>
     <row r="17" spans="2:6" ht="65.099999999999994" customHeight="1">
-      <c r="B17" s="46"/>
-      <c r="C17" s="47"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="41"/>
       <c r="D17" s="20"/>
       <c r="E17" s="20"/>
       <c r="F17" s="21"/>
     </row>
     <row r="18" spans="2:6" ht="13.5">
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -2435,4 +2384,10 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{d991d8fc-075a-40d9-9005-ea82ca0145cf}" enabled="1" method="Privileged" siteId="{54eb9440-cf03-45fe-835e-61bd4ce515c8}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>